--- a/terst.xlsx
+++ b/terst.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="202">
   <si>
     <t>Номер</t>
   </si>
@@ -408,6 +408,219 @@
   <si>
     <t>Форма принята</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>мигающий значок</t>
+  </si>
+  <si>
+    <t>цвет бланка регистрации</t>
+  </si>
+  <si>
+    <t>кнопка регистрации</t>
+  </si>
+  <si>
+    <t>указатели на обязательные поля заполнения</t>
+  </si>
+  <si>
+    <t>расстояние между полями и подписями</t>
+  </si>
+  <si>
+    <t>распределены неравномерно</t>
+  </si>
+  <si>
+    <t>указатель сливается с основным цветом фона</t>
+  </si>
+  <si>
+    <t>кнопка регистрации вытянута на всю строку</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> слишком привлекающая внимания вывеска с сочетанием цветов</t>
+  </si>
+  <si>
+    <t>цвет бланка выбивается из общей композиции и выглядит негармонично, грязный переход от светло-зеленого к темно-зеленому</t>
+  </si>
+  <si>
+    <t>сочетание цветов формы и кнопки регистрации</t>
+  </si>
+  <si>
+    <t>неверная орфография</t>
+  </si>
+  <si>
+    <t>в некоторых строках "выберите" написано неверно</t>
+  </si>
+  <si>
+    <t>разные размеры шрифта</t>
+  </si>
+  <si>
+    <t>строка ваше имя не соответствует по размеру шрифта</t>
+  </si>
+  <si>
+    <t>отключение интернета</t>
+  </si>
+  <si>
+    <t>выход из браузера</t>
+  </si>
+  <si>
+    <t>исчезает</t>
+  </si>
+  <si>
+    <t>перезагрузка сайта</t>
+  </si>
+  <si>
+    <t>проблема с сервером</t>
+  </si>
+  <si>
+    <t>нажатие на кнопку назад</t>
+  </si>
+  <si>
+    <t>отказ-восстановления</t>
+  </si>
+  <si>
+    <t>нефункциональные требования</t>
+  </si>
+  <si>
+    <t>Списки эквивалентных областей</t>
+  </si>
+  <si>
+    <t>позитивное значение</t>
+  </si>
+  <si>
+    <t>негативное значение</t>
+  </si>
+  <si>
+    <t>Большая буква, написанные кириллицей</t>
+  </si>
+  <si>
+    <t>Имя латинскими буквами</t>
+  </si>
+  <si>
+    <t>Имя, состоящее из нескольких слов</t>
+  </si>
+  <si>
+    <t>Двойное имя, написанное через дефис</t>
+  </si>
+  <si>
+    <t>Имена в символах арабского алфавита или алфавита азиатского сегмента</t>
+  </si>
+  <si>
+    <t>Имена, содержащие цифры</t>
+  </si>
+  <si>
+    <t>имя в латинском алфавите, имеющее от 3 и более букв</t>
+  </si>
+  <si>
+    <t>Имя в литинском амфавите, содержащее цифры</t>
+  </si>
+  <si>
+    <t>имя, написанное на кириллице</t>
+  </si>
+  <si>
+    <t>адрес электронной почты</t>
+  </si>
+  <si>
+    <t>использование кириллицы</t>
+  </si>
+  <si>
+    <t>отсутствие использование доменного имени(name.name)</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>дд.мм.гггг</t>
+  </si>
+  <si>
+    <t>соответствение с установленной маской</t>
+  </si>
+  <si>
+    <t>использование невоззможной даты(&lt;1900)</t>
+  </si>
+  <si>
+    <t>имена,содержащие символы и смайлики</t>
+  </si>
+  <si>
+    <t>Имя, содержащее нижние подчеркивания или символы, смайлики</t>
+  </si>
+  <si>
+    <t>отсутствие использования @ или использование сторонних символов</t>
+  </si>
+  <si>
+    <t>3, 4 255, 256</t>
+  </si>
+  <si>
+    <t>3, 4 254, 255</t>
+  </si>
+  <si>
+    <t>17,18 110,111</t>
+  </si>
+  <si>
+    <t>1899, 1900  2100, 2101</t>
+  </si>
+  <si>
+    <t>тест кейс</t>
+  </si>
+  <si>
+    <t>только позитивные значения</t>
+  </si>
+  <si>
+    <t>ограничение логическое</t>
+  </si>
+  <si>
+    <t>технологическое</t>
+  </si>
+  <si>
+    <t>произвольное</t>
+  </si>
+  <si>
+    <t>[16; 19]</t>
+  </si>
+  <si>
+    <t>str: 255</t>
+  </si>
+  <si>
+    <t>формат без пробелов(16)</t>
+  </si>
+  <si>
+    <t>формат с пробелами(19)</t>
+  </si>
+  <si>
+    <t>16 символов 3 пробела</t>
+  </si>
+  <si>
+    <t>16 символов</t>
+  </si>
+  <si>
+    <t>15 символов</t>
+  </si>
+  <si>
+    <t>17 символов</t>
+  </si>
+  <si>
+    <t>18 символов</t>
+  </si>
+  <si>
+    <t>19 символов</t>
+  </si>
+  <si>
+    <t>15 символов 3 пробела</t>
+  </si>
+  <si>
+    <t>14 символов 3 пробела</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 символов 3 пробела </t>
+  </si>
+  <si>
+    <t>вариации с меньшим количеством символом и большим количеством пробелов</t>
+  </si>
+  <si>
+    <t>20 символов</t>
+  </si>
+  <si>
+    <t>17 символов 3 пробела</t>
+  </si>
 </sst>
 </file>
 
@@ -652,7 +865,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -685,18 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -733,6 +934,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1042,14 +1267,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
     <col min="3" max="3" width="40.6328125" customWidth="1"/>
     <col min="4" max="4" width="51.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.26953125" customWidth="1"/>
@@ -1335,12 +1560,12 @@
       <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -1366,12 +1591,12 @@
       <c r="A33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -1397,12 +1622,12 @@
       <c r="A34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -1428,12 +1653,12 @@
       <c r="A35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="30">
         <v>45573</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -1459,12 +1684,12 @@
       <c r="A36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -1490,12 +1715,12 @@
       <c r="A37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -1571,7 +1796,7 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
     </row>
-    <row r="40" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
         <v>1</v>
       </c>
@@ -1698,10 +1923,10 @@
       <c r="Y43" s="7"/>
     </row>
     <row r="44" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -1739,7 +1964,7 @@
       <c r="Y44" s="7"/>
     </row>
     <row r="45" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="18" t="s">
         <v>68</v>
       </c>
       <c r="B45">
@@ -1780,7 +2005,7 @@
       <c r="Y45" s="7"/>
     </row>
     <row r="46" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="23"/>
+      <c r="A46" s="19"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9" t="s">
         <v>109</v>
@@ -1814,7 +2039,7 @@
       <c r="Y46" s="7"/>
     </row>
     <row r="47" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="23"/>
+      <c r="A47" s="19"/>
       <c r="C47" s="9"/>
       <c r="D47" s="7" t="s">
         <v>110</v>
@@ -1848,7 +2073,7 @@
       <c r="Y47" s="7"/>
     </row>
     <row r="48" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="23"/>
+      <c r="A48" s="19"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9" t="s">
         <v>111</v>
@@ -1882,7 +2107,7 @@
       <c r="Y48" s="7"/>
     </row>
     <row r="49" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="23"/>
+      <c r="A49" s="19"/>
       <c r="C49" s="7"/>
       <c r="D49" s="9" t="s">
         <v>112</v>
@@ -1916,7 +2141,7 @@
       <c r="Y49" s="7"/>
     </row>
     <row r="50" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="24"/>
+      <c r="A50" s="20"/>
       <c r="C50" s="6"/>
       <c r="D50" s="9" t="s">
         <v>113</v>
@@ -1950,7 +2175,7 @@
       <c r="Y50" s="7"/>
     </row>
     <row r="51" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="22"/>
+      <c r="A51" s="18"/>
       <c r="C51" s="6"/>
       <c r="D51" s="9" t="s">
         <v>124</v>
@@ -1958,7 +2183,7 @@
       <c r="E51" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="15" t="s">
         <v>129</v>
       </c>
       <c r="G51" s="9" t="s">
@@ -1984,7 +2209,7 @@
       <c r="Y51" s="7"/>
     </row>
     <row r="52" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="23"/>
+      <c r="A52" s="19"/>
       <c r="C52" s="6"/>
       <c r="D52" s="9" t="s">
         <v>114</v>
@@ -1992,7 +2217,7 @@
       <c r="E52" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="15" t="s">
         <v>130</v>
       </c>
       <c r="G52" s="9" t="s">
@@ -2018,7 +2243,7 @@
       <c r="Y52" s="7"/>
     </row>
     <row r="53" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="23"/>
+      <c r="A53" s="19"/>
       <c r="C53" s="6" t="s">
         <v>74</v>
       </c>
@@ -2028,7 +2253,7 @@
       <c r="E53" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="15" t="s">
         <v>130</v>
       </c>
       <c r="G53" s="9" t="s">
@@ -2054,7 +2279,7 @@
       <c r="Y53" s="7"/>
     </row>
     <row r="54" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="23"/>
+      <c r="A54" s="19"/>
       <c r="C54" s="6"/>
       <c r="D54" s="9" t="s">
         <v>116</v>
@@ -2062,7 +2287,7 @@
       <c r="E54" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="15" t="s">
         <v>130</v>
       </c>
       <c r="G54" s="9" t="s">
@@ -2088,7 +2313,7 @@
       <c r="Y54" s="7"/>
     </row>
     <row r="55" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="22"/>
+      <c r="A55" s="18"/>
       <c r="C55" s="6" t="s">
         <v>117</v>
       </c>
@@ -2098,7 +2323,7 @@
       <c r="E55" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="15" t="s">
         <v>129</v>
       </c>
       <c r="G55" s="9" t="s">
@@ -2124,7 +2349,7 @@
       <c r="Y55" s="7"/>
     </row>
     <row r="56" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B56">
@@ -2135,7 +2360,7 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="20"/>
+      <c r="F56" s="16"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -2157,13 +2382,13 @@
       <c r="Y56" s="7"/>
     </row>
     <row r="57" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="23"/>
+      <c r="A57" s="19"/>
       <c r="C57" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="19"/>
+      <c r="F57" s="15"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -2185,13 +2410,13 @@
       <c r="Y57" s="7"/>
     </row>
     <row r="58" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="23"/>
+      <c r="A58" s="19"/>
       <c r="C58" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="19"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -2213,7 +2438,7 @@
       <c r="Y58" s="7"/>
     </row>
     <row r="59" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="23"/>
+      <c r="A59" s="19"/>
       <c r="C59" s="9" t="s">
         <v>78</v>
       </c>
@@ -2241,7 +2466,7 @@
       <c r="Y59" s="7"/>
     </row>
     <row r="60" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="23"/>
+      <c r="A60" s="19"/>
       <c r="C60" s="9" t="s">
         <v>80</v>
       </c>
@@ -2269,7 +2494,7 @@
       <c r="Y60" s="7"/>
     </row>
     <row r="61" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="24"/>
+      <c r="A61" s="20"/>
       <c r="C61" s="9" t="s">
         <v>81</v>
       </c>
@@ -2297,7 +2522,7 @@
       <c r="Y61" s="7"/>
     </row>
     <row r="62" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B62">
@@ -2330,7 +2555,7 @@
       <c r="Y62" s="7"/>
     </row>
     <row r="63" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="27"/>
+      <c r="A63" s="23"/>
       <c r="C63" s="9" t="s">
         <v>83</v>
       </c>
@@ -2358,7 +2583,7 @@
       <c r="Y63" s="7"/>
     </row>
     <row r="64" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="27"/>
+      <c r="A64" s="23"/>
       <c r="C64" s="9" t="s">
         <v>84</v>
       </c>
@@ -2386,7 +2611,7 @@
       <c r="Y64" s="7"/>
     </row>
     <row r="65" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="29"/>
+      <c r="A65" s="25"/>
       <c r="C65" s="9" t="s">
         <v>85</v>
       </c>
@@ -2414,7 +2639,7 @@
       <c r="Y65" s="7"/>
     </row>
     <row r="66" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B66">
@@ -2447,7 +2672,7 @@
       <c r="Y66" s="7"/>
     </row>
     <row r="67" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="30"/>
+      <c r="A67" s="26"/>
       <c r="C67" s="9" t="s">
         <v>87</v>
       </c>
@@ -2475,7 +2700,7 @@
       <c r="Y67" s="7"/>
     </row>
     <row r="68" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B68">
@@ -2508,7 +2733,7 @@
       <c r="Y68" s="7"/>
     </row>
     <row r="69" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="29"/>
+      <c r="A69" s="25"/>
       <c r="C69" s="9" t="s">
         <v>89</v>
       </c>
@@ -2536,7 +2761,7 @@
       <c r="Y69" s="7"/>
     </row>
     <row r="70" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B70">
@@ -2569,7 +2794,7 @@
       <c r="Y70" s="7"/>
     </row>
     <row r="71" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="28"/>
+      <c r="A71" s="24"/>
       <c r="C71" s="9" t="s">
         <v>91</v>
       </c>
@@ -2597,7 +2822,7 @@
       <c r="Y71" s="7"/>
     </row>
     <row r="72" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="30"/>
+      <c r="A72" s="26"/>
       <c r="C72" s="7" t="s">
         <v>92</v>
       </c>
@@ -3094,7 +3319,9 @@
     <row r="89" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
+      <c r="C89" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -3118,11 +3345,15 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
     </row>
-    <row r="90" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
+      <c r="C90" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
@@ -3145,12 +3376,18 @@
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
     </row>
-    <row r="91" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:25" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
+      <c r="C91" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -3175,8 +3412,12 @@
     <row r="92" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
+      <c r="C92" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -3202,8 +3443,12 @@
     <row r="93" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
+      <c r="C93" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -3229,8 +3474,12 @@
     <row r="94" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
+      <c r="C94" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
@@ -3253,10 +3502,12 @@
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
     </row>
-    <row r="95" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
+      <c r="C95" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -3283,8 +3534,12 @@
     <row r="96" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
+      <c r="C96" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
@@ -3310,8 +3565,12 @@
     <row r="97" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
+      <c r="C97" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
@@ -3364,7 +3623,9 @@
     <row r="99" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
+      <c r="C99" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -3391,8 +3652,12 @@
     <row r="100" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
+      <c r="C100" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -3418,8 +3683,12 @@
     <row r="101" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
+      <c r="C101" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
@@ -3445,8 +3714,12 @@
     <row r="102" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
+      <c r="C102" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -3472,8 +3745,12 @@
     <row r="103" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
+      <c r="C103" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
@@ -3499,8 +3776,12 @@
     <row r="104" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
+      <c r="C104" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -3553,7 +3834,9 @@
     <row r="106" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
+      <c r="C106" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
@@ -3580,8 +3863,12 @@
     <row r="107" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
+      <c r="C107" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>157</v>
+      </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
@@ -3604,11 +3891,17 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
     </row>
-    <row r="108" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
+      <c r="B108" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
@@ -3634,8 +3927,12 @@
     <row r="109" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
+      <c r="C109" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
@@ -3661,8 +3958,12 @@
     <row r="110" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
+      <c r="C110" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -3688,7 +3989,9 @@
     <row r="111" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
+      <c r="C111" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
@@ -3712,11 +4015,17 @@
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
     </row>
-    <row r="112" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:25" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
+      <c r="B112" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
@@ -3739,11 +4048,15 @@
       <c r="X112" s="7"/>
       <c r="Y112" s="7"/>
     </row>
-    <row r="113" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
+      <c r="C113" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
@@ -3766,11 +4079,17 @@
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
     </row>
-    <row r="114" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:25" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
+      <c r="B114" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
@@ -3797,7 +4116,9 @@
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
+      <c r="D115" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
@@ -3820,11 +4141,13 @@
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
     </row>
-    <row r="116" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
+      <c r="D116" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
@@ -3847,11 +4170,17 @@
       <c r="X116" s="7"/>
       <c r="Y116" s="7"/>
     </row>
-    <row r="117" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
+      <c r="B117" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
@@ -3958,7 +4287,9 @@
     <row r="121" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
+      <c r="C121" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -3985,7 +4316,9 @@
     <row r="122" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
+      <c r="C122" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -4012,7 +4345,9 @@
     <row r="123" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
+      <c r="C123" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
@@ -4039,7 +4374,9 @@
     <row r="124" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
+      <c r="C124" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
@@ -4254,7 +4591,9 @@
     </row>
     <row r="132" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
+      <c r="B132" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -4279,10 +4618,14 @@
       <c r="X132" s="7"/>
       <c r="Y132" s="7"/>
     </row>
-    <row r="133" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
+      <c r="B133" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
@@ -4306,10 +4649,14 @@
       <c r="X133" s="7"/>
       <c r="Y133" s="7"/>
     </row>
-    <row r="134" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
+      <c r="B134" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>187</v>
+      </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
@@ -4335,10 +4682,18 @@
     </row>
     <row r="135" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
+      <c r="B135" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>188</v>
+      </c>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
@@ -4364,8 +4719,12 @@
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
+      <c r="D136" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
@@ -4391,8 +4750,12 @@
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
+      <c r="D137" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
@@ -4418,8 +4781,12 @@
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
+      <c r="D138" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E138" s="34" t="s">
+        <v>193</v>
+      </c>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
@@ -4445,8 +4812,12 @@
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
+      <c r="D139" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E139" s="34" t="s">
+        <v>194</v>
+      </c>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
@@ -4472,8 +4843,12 @@
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
+      <c r="D140" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E140" s="31" t="s">
+        <v>195</v>
+      </c>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
@@ -4495,12 +4870,16 @@
       <c r="X140" s="7"/>
       <c r="Y140" s="7"/>
     </row>
-    <row r="141" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
+      <c r="D141" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E141" s="31" t="s">
+        <v>200</v>
+      </c>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
@@ -28530,12 +28909,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
